--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1629.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1629.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.102113172507086</v>
+        <v>0.9319836497306824</v>
       </c>
       <c r="B1">
-        <v>2.818314151484954</v>
+        <v>3.162780284881592</v>
       </c>
       <c r="C1">
-        <v>4.058044110613594</v>
+        <v>4.20416259765625</v>
       </c>
       <c r="D1">
-        <v>2.360498781390226</v>
+        <v>3.024479389190674</v>
       </c>
       <c r="E1">
-        <v>1.119774468117974</v>
+        <v>1.369701504707336</v>
       </c>
     </row>
   </sheetData>
